--- a/个人文件/海格嵘兴工作计划与日志表-Java研发部-白章顺.xlsx
+++ b/个人文件/海格嵘兴工作计划与日志表-Java研发部-白章顺.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="278">
   <si>
     <t>相关责任划分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1679,6 +1679,38 @@
   </si>
   <si>
     <t>1 继续完善12345接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 vue改写台站年度统计功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 继续完善12345接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1完善12345接口
+2 编写12345对接接口文档
+3 vue改写台站年度统计功能（40%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 统一信息展示缴费信息展示功能
+2 统一信息展示重点信息展示功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 统一信息展示台站分布信息展示功能
+2 统一信息展示台站过期统计信息展示功能
+3 统一信息展示行业台站分布信息展示功能
+4 统一信息展示行业台站过期统计展示功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 统一信息展示缴费信息展示功能(20%)
+2 统一信息展示重点信息展示功能(30%)
+3 统一信息展示系统菜单功能（70%）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1842,7 +1874,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2401,6 +2433,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2448,27 +2519,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2845,8 +2895,8 @@
   <dimension ref="A1:K194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K127" sqref="K127"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2904,33 +2954,33 @@
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
-      <c r="E2" s="187"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="188"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="200"/>
+      <c r="J2" s="201"/>
     </row>
     <row r="3" spans="1:11" ht="67.349999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="189" t="s">
+      <c r="B3" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
+      <c r="C3" s="202"/>
+      <c r="D3" s="202"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="202"/>
     </row>
     <row r="4" spans="1:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27">
@@ -3049,33 +3099,33 @@
       <c r="A9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="191" t="s">
+      <c r="B9" s="204" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="192"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="193"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="205"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="205"/>
+      <c r="I9" s="205"/>
+      <c r="J9" s="206"/>
     </row>
     <row r="10" spans="1:11" ht="171" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="196" t="s">
+      <c r="B10" s="209" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="197"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="197"/>
-      <c r="H10" s="197"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="198"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="211"/>
     </row>
     <row r="11" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="37">
@@ -3561,33 +3611,33 @@
       <c r="A32" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="191" t="s">
+      <c r="B32" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="192"/>
-      <c r="D32" s="192"/>
-      <c r="E32" s="192"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="192"/>
-      <c r="H32" s="192"/>
-      <c r="I32" s="192"/>
-      <c r="J32" s="193"/>
+      <c r="C32" s="205"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="205"/>
+      <c r="F32" s="205"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="205"/>
+      <c r="I32" s="205"/>
+      <c r="J32" s="206"/>
     </row>
     <row r="33" spans="1:11" ht="67.349999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="189" t="s">
+      <c r="B33" s="202" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="189"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="189"/>
-      <c r="J33" s="189"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="202"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="202"/>
+      <c r="J33" s="202"/>
     </row>
     <row r="34" spans="1:11" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="76">
@@ -4039,34 +4089,34 @@
       <c r="A56" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="199" t="s">
+      <c r="B56" s="212" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="200"/>
-      <c r="D56" s="200"/>
-      <c r="E56" s="200"/>
-      <c r="F56" s="200"/>
-      <c r="G56" s="200"/>
-      <c r="H56" s="200"/>
-      <c r="I56" s="200"/>
-      <c r="J56" s="201"/>
+      <c r="C56" s="213"/>
+      <c r="D56" s="213"/>
+      <c r="E56" s="213"/>
+      <c r="F56" s="213"/>
+      <c r="G56" s="213"/>
+      <c r="H56" s="213"/>
+      <c r="I56" s="213"/>
+      <c r="J56" s="214"/>
       <c r="K56" s="114"/>
     </row>
     <row r="57" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="196" t="s">
+      <c r="B57" s="209" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="197"/>
-      <c r="D57" s="197"/>
-      <c r="E57" s="197"/>
-      <c r="F57" s="197"/>
-      <c r="G57" s="197"/>
-      <c r="H57" s="197"/>
-      <c r="I57" s="197"/>
-      <c r="J57" s="198"/>
+      <c r="C57" s="210"/>
+      <c r="D57" s="210"/>
+      <c r="E57" s="210"/>
+      <c r="F57" s="210"/>
+      <c r="G57" s="210"/>
+      <c r="H57" s="210"/>
+      <c r="I57" s="210"/>
+      <c r="J57" s="211"/>
       <c r="K57" s="114"/>
     </row>
     <row r="58" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4262,51 +4312,51 @@
     </row>
     <row r="67" spans="1:11" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="25"/>
-      <c r="B67" s="194"/>
-      <c r="C67" s="194"/>
-      <c r="D67" s="194"/>
-      <c r="E67" s="194"/>
-      <c r="F67" s="194"/>
-      <c r="G67" s="194"/>
-      <c r="H67" s="194"/>
-      <c r="I67" s="194"/>
-      <c r="J67" s="194"/>
+      <c r="B67" s="207"/>
+      <c r="C67" s="207"/>
+      <c r="D67" s="207"/>
+      <c r="E67" s="207"/>
+      <c r="F67" s="207"/>
+      <c r="G67" s="207"/>
+      <c r="H67" s="207"/>
+      <c r="I67" s="207"/>
+      <c r="J67" s="207"/>
     </row>
     <row r="68" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="26"/>
-      <c r="B68" s="195"/>
-      <c r="C68" s="195"/>
-      <c r="D68" s="195"/>
-      <c r="E68" s="195"/>
-      <c r="F68" s="195"/>
-      <c r="G68" s="195"/>
-      <c r="H68" s="195"/>
-      <c r="I68" s="195"/>
-      <c r="J68" s="195"/>
+      <c r="B68" s="208"/>
+      <c r="C68" s="208"/>
+      <c r="D68" s="208"/>
+      <c r="E68" s="208"/>
+      <c r="F68" s="208"/>
+      <c r="G68" s="208"/>
+      <c r="H68" s="208"/>
+      <c r="I68" s="208"/>
+      <c r="J68" s="208"/>
     </row>
     <row r="69" spans="1:11" ht="105.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
-      <c r="B69" s="190"/>
-      <c r="C69" s="190"/>
-      <c r="D69" s="190"/>
-      <c r="E69" s="190"/>
-      <c r="F69" s="190"/>
-      <c r="G69" s="190"/>
-      <c r="H69" s="190"/>
-      <c r="I69" s="190"/>
-      <c r="J69" s="190"/>
+      <c r="B69" s="203"/>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="203"/>
+      <c r="F69" s="203"/>
+      <c r="G69" s="203"/>
+      <c r="H69" s="203"/>
+      <c r="I69" s="203"/>
+      <c r="J69" s="203"/>
     </row>
     <row r="70" spans="1:11" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
-      <c r="B70" s="190"/>
-      <c r="C70" s="190"/>
-      <c r="D70" s="190"/>
-      <c r="E70" s="190"/>
-      <c r="F70" s="190"/>
-      <c r="G70" s="190"/>
-      <c r="H70" s="190"/>
-      <c r="I70" s="190"/>
-      <c r="J70" s="190"/>
+      <c r="B70" s="203"/>
+      <c r="C70" s="203"/>
+      <c r="D70" s="203"/>
+      <c r="E70" s="203"/>
+      <c r="F70" s="203"/>
+      <c r="G70" s="203"/>
+      <c r="H70" s="203"/>
+      <c r="I70" s="203"/>
+      <c r="J70" s="203"/>
     </row>
     <row r="71" spans="1:11" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="122">
@@ -4564,12 +4614,12 @@
       <c r="A83" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="206" t="s">
+      <c r="B83" s="196" t="s">
         <v>186</v>
       </c>
-      <c r="C83" s="207"/>
-      <c r="D83" s="207"/>
-      <c r="E83" s="208"/>
+      <c r="C83" s="197"/>
+      <c r="D83" s="197"/>
+      <c r="E83" s="198"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -4580,12 +4630,12 @@
       <c r="A84" s="137" t="s">
         <v>185</v>
       </c>
-      <c r="B84" s="206" t="s">
+      <c r="B84" s="196" t="s">
         <v>187</v>
       </c>
-      <c r="C84" s="207"/>
-      <c r="D84" s="207"/>
-      <c r="E84" s="208"/>
+      <c r="C84" s="197"/>
+      <c r="D84" s="197"/>
+      <c r="E84" s="198"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -5449,12 +5499,14 @@
     </row>
     <row r="128" spans="1:11" ht="147" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="184">
-        <v>20170926</v>
+        <v>20170927</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="C128" s="7"/>
+        <v>273</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>274</v>
+      </c>
       <c r="D128" s="3"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7"/>
@@ -5463,9 +5515,13 @@
       <c r="I128" s="7"/>
       <c r="J128" s="7"/>
     </row>
-    <row r="129" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
+    <row r="129" spans="1:11" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="187">
+        <v>20170928</v>
+      </c>
+      <c r="B129" s="186" t="s">
+        <v>272</v>
+      </c>
       <c r="C129" s="7"/>
       <c r="D129" s="3"/>
       <c r="E129" s="7"/>
@@ -5475,33 +5531,37 @@
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
     </row>
-    <row r="130" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="8"/>
-      <c r="B130" s="205"/>
-      <c r="C130" s="205"/>
-      <c r="D130" s="205"/>
-      <c r="E130" s="205"/>
-      <c r="F130" s="205"/>
-      <c r="G130" s="205"/>
-      <c r="H130" s="205"/>
-      <c r="I130" s="205"/>
-      <c r="J130" s="205"/>
-    </row>
-    <row r="131" spans="1:10" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B130" s="195"/>
+      <c r="C130" s="195"/>
+      <c r="D130" s="195"/>
+      <c r="E130" s="195"/>
+      <c r="F130" s="195"/>
+      <c r="G130" s="195"/>
+      <c r="H130" s="195"/>
+      <c r="I130" s="195"/>
+      <c r="J130" s="195"/>
+    </row>
+    <row r="131" spans="1:11" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="8"/>
-      <c r="B131" s="205"/>
-      <c r="C131" s="205"/>
-      <c r="D131" s="205"/>
-      <c r="E131" s="205"/>
-      <c r="F131" s="205"/>
-      <c r="G131" s="205"/>
-      <c r="H131" s="205"/>
-      <c r="I131" s="205"/>
-      <c r="J131" s="205"/>
-    </row>
-    <row r="132" spans="1:10" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="8"/>
-      <c r="B132" s="5"/>
+      <c r="B131" s="195"/>
+      <c r="C131" s="195"/>
+      <c r="D131" s="195"/>
+      <c r="E131" s="195"/>
+      <c r="F131" s="195"/>
+      <c r="G131" s="195"/>
+      <c r="H131" s="195"/>
+      <c r="I131" s="195"/>
+      <c r="J131" s="195"/>
+    </row>
+    <row r="132" spans="1:11" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="188">
+        <v>20171016</v>
+      </c>
+      <c r="B132" s="188" t="s">
+        <v>276</v>
+      </c>
       <c r="C132" s="8"/>
       <c r="D132" s="3"/>
       <c r="E132" s="8"/>
@@ -5510,11 +5570,20 @@
       <c r="H132" s="8"/>
       <c r="I132" s="8"/>
       <c r="J132" s="8"/>
-    </row>
-    <row r="133" spans="1:10" ht="108" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="8"/>
+      <c r="K132" s="188" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="188">
+        <v>20171017</v>
+      </c>
+      <c r="B133" s="189" t="s">
+        <v>275</v>
+      </c>
+      <c r="C133" s="188" t="s">
+        <v>276</v>
+      </c>
       <c r="D133" s="3"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
@@ -5522,11 +5591,20 @@
       <c r="H133" s="8"/>
       <c r="I133" s="8"/>
       <c r="J133" s="8"/>
-    </row>
-    <row r="134" spans="1:10" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
+      <c r="K133" s="190" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="191">
+        <v>20171018</v>
+      </c>
+      <c r="B134" s="190" t="s">
+        <v>275</v>
+      </c>
+      <c r="C134" s="190" t="s">
+        <v>277</v>
+      </c>
       <c r="D134" s="3"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
@@ -5535,10 +5613,10 @@
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="8"/>
       <c r="B135" s="8"/>
-      <c r="C135" s="8"/>
+      <c r="C135" s="190"/>
       <c r="D135" s="3"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
@@ -5547,7 +5625,7 @@
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -5559,7 +5637,7 @@
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
     </row>
-    <row r="137" spans="1:10" ht="96" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="8"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -5571,7 +5649,7 @@
       <c r="I137" s="8"/>
       <c r="J137" s="8"/>
     </row>
-    <row r="138" spans="1:10" ht="180" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="8"/>
       <c r="B138" s="9"/>
       <c r="C138" s="8"/>
@@ -5583,7 +5661,7 @@
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
     </row>
-    <row r="139" spans="1:10" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:11" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="8"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -5595,7 +5673,7 @@
       <c r="I139" s="8"/>
       <c r="J139" s="8"/>
     </row>
-    <row r="140" spans="1:10" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="8"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -5607,7 +5685,7 @@
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
     </row>
-    <row r="141" spans="1:10" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:11" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="8"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -5619,7 +5697,7 @@
       <c r="I141" s="8"/>
       <c r="J141" s="8"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A142" s="8"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -5631,7 +5709,7 @@
       <c r="I142" s="8"/>
       <c r="J142" s="8"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A143" s="8"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -5643,7 +5721,7 @@
       <c r="I143" s="8"/>
       <c r="J143" s="8"/>
     </row>
-    <row r="144" spans="1:10" ht="60.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:11" ht="60.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="8"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -5873,27 +5951,27 @@
     </row>
     <row r="163" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="16"/>
-      <c r="B163" s="202"/>
-      <c r="C163" s="203"/>
-      <c r="D163" s="203"/>
-      <c r="E163" s="203"/>
-      <c r="F163" s="203"/>
-      <c r="G163" s="203"/>
-      <c r="H163" s="203"/>
-      <c r="I163" s="203"/>
-      <c r="J163" s="204"/>
+      <c r="B163" s="192"/>
+      <c r="C163" s="193"/>
+      <c r="D163" s="193"/>
+      <c r="E163" s="193"/>
+      <c r="F163" s="193"/>
+      <c r="G163" s="193"/>
+      <c r="H163" s="193"/>
+      <c r="I163" s="193"/>
+      <c r="J163" s="194"/>
     </row>
     <row r="164" spans="1:10" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="16"/>
-      <c r="B164" s="202"/>
-      <c r="C164" s="203"/>
-      <c r="D164" s="203"/>
-      <c r="E164" s="203"/>
-      <c r="F164" s="203"/>
-      <c r="G164" s="203"/>
-      <c r="H164" s="203"/>
-      <c r="I164" s="203"/>
-      <c r="J164" s="204"/>
+      <c r="B164" s="192"/>
+      <c r="C164" s="193"/>
+      <c r="D164" s="193"/>
+      <c r="E164" s="193"/>
+      <c r="F164" s="193"/>
+      <c r="G164" s="193"/>
+      <c r="H164" s="193"/>
+      <c r="I164" s="193"/>
+      <c r="J164" s="194"/>
     </row>
     <row r="165" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="15"/>
@@ -6257,12 +6335,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B163:J163"/>
-    <mergeCell ref="B164:J164"/>
-    <mergeCell ref="B130:J130"/>
-    <mergeCell ref="B131:J131"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:J3"/>
     <mergeCell ref="B70:J70"/>
@@ -6275,6 +6347,12 @@
     <mergeCell ref="B10:J10"/>
     <mergeCell ref="B56:J56"/>
     <mergeCell ref="B57:J57"/>
+    <mergeCell ref="B163:J163"/>
+    <mergeCell ref="B164:J164"/>
+    <mergeCell ref="B130:J130"/>
+    <mergeCell ref="B131:J131"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/个人文件/海格嵘兴工作计划与日志表-Java研发部-白章顺.xlsx
+++ b/个人文件/海格嵘兴工作计划与日志表-Java研发部-白章顺.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="291">
   <si>
     <t>相关责任划分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1711,6 +1711,85 @@
     <t>1 统一信息展示缴费信息展示功能(20%)
 2 统一信息展示重点信息展示功能(30%)
 3 统一信息展示系统菜单功能（70%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 调试一体化平台演示环，为和炎黄讨论做准备
+2 与炎黄讨论开发中遇到的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 统一信息展示缴费信息展示功能
+2 统一信息展示重点信息展示功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 调试一体化平台演示环，为和炎黄讨论做准备
+2 与炎黄讨论开发中遇到的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 整理炎黄讨论的结果。
+2 编写向炎黄研发人员反馈的问题文档。
+3 统一信息展示系统：缴费信息据年份展示每月缴费功能
+4 开会讨论下周的工作内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 清理bpms生产环境中的测试数据
+2 协助安装一体化平台系统环境
+3 统一信息展示系统编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 协助调试审改办代码
+2 协助安装一体化平台系统环境
+3 统一信息展示系统编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 协助调试审改办代码
+2 协助安装一体化平台系统环境
+3 向各业务处室索取业务资料
+4 向受理中心讲解一体化门户
+5 建立审改办数据库
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 在受理中心帮助业务人员试运行一体化系统
+2 在核心业务系统中添加12345热线菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 协助调试审改办代码
+2 协助安装一体化平台系统环境
+3 向各业务处室索取业务资料
+4 向受理中心讲解一体化门户
+5 建立审改办数据库
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 协助业务人员试运行并收集意见
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 在受理中心收集业务资料
+2 在核心业务系统中添加12345热线菜单
+3 迁移统一信息展示频率信息和频率指配功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 协助受理中心、频率处、台站处业务人员试运行并收集意见
+2 处理审改办数据上传任务（20%）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 协助业务人员试运行并收集意见
+2 处理审改办数据上传任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1874,7 +1953,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2444,6 +2523,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2895,8 +2995,8 @@
   <dimension ref="A1:K194"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C134" sqref="C134"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2954,33 +3054,33 @@
       <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="206" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="201"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="208"/>
     </row>
     <row r="3" spans="1:11" ht="67.349999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="202" t="s">
+      <c r="B3" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="202"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
     </row>
     <row r="4" spans="1:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27">
@@ -3099,33 +3199,33 @@
       <c r="A9" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="204" t="s">
+      <c r="B9" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="205"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="205"/>
-      <c r="H9" s="205"/>
-      <c r="I9" s="205"/>
-      <c r="J9" s="206"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="212"/>
+      <c r="F9" s="212"/>
+      <c r="G9" s="212"/>
+      <c r="H9" s="212"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="213"/>
     </row>
     <row r="10" spans="1:11" ht="171" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="209" t="s">
+      <c r="B10" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="211"/>
+      <c r="C10" s="217"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="217"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="217"/>
+      <c r="J10" s="218"/>
     </row>
     <row r="11" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="37">
@@ -3611,33 +3711,33 @@
       <c r="A32" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="204" t="s">
+      <c r="B32" s="211" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="205"/>
-      <c r="D32" s="205"/>
-      <c r="E32" s="205"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="205"/>
-      <c r="H32" s="205"/>
-      <c r="I32" s="205"/>
-      <c r="J32" s="206"/>
+      <c r="C32" s="212"/>
+      <c r="D32" s="212"/>
+      <c r="E32" s="212"/>
+      <c r="F32" s="212"/>
+      <c r="G32" s="212"/>
+      <c r="H32" s="212"/>
+      <c r="I32" s="212"/>
+      <c r="J32" s="213"/>
     </row>
     <row r="33" spans="1:11" ht="67.349999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="202" t="s">
+      <c r="B33" s="209" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="202"/>
-      <c r="D33" s="202"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="202"/>
-      <c r="I33" s="202"/>
-      <c r="J33" s="202"/>
+      <c r="C33" s="209"/>
+      <c r="D33" s="209"/>
+      <c r="E33" s="209"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="209"/>
     </row>
     <row r="34" spans="1:11" ht="191.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="76">
@@ -4089,34 +4189,34 @@
       <c r="A56" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="212" t="s">
+      <c r="B56" s="219" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="213"/>
-      <c r="D56" s="213"/>
-      <c r="E56" s="213"/>
-      <c r="F56" s="213"/>
-      <c r="G56" s="213"/>
-      <c r="H56" s="213"/>
-      <c r="I56" s="213"/>
-      <c r="J56" s="214"/>
+      <c r="C56" s="220"/>
+      <c r="D56" s="220"/>
+      <c r="E56" s="220"/>
+      <c r="F56" s="220"/>
+      <c r="G56" s="220"/>
+      <c r="H56" s="220"/>
+      <c r="I56" s="220"/>
+      <c r="J56" s="221"/>
       <c r="K56" s="114"/>
     </row>
     <row r="57" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="B57" s="209" t="s">
+      <c r="B57" s="216" t="s">
         <v>134</v>
       </c>
-      <c r="C57" s="210"/>
-      <c r="D57" s="210"/>
-      <c r="E57" s="210"/>
-      <c r="F57" s="210"/>
-      <c r="G57" s="210"/>
-      <c r="H57" s="210"/>
-      <c r="I57" s="210"/>
-      <c r="J57" s="211"/>
+      <c r="C57" s="217"/>
+      <c r="D57" s="217"/>
+      <c r="E57" s="217"/>
+      <c r="F57" s="217"/>
+      <c r="G57" s="217"/>
+      <c r="H57" s="217"/>
+      <c r="I57" s="217"/>
+      <c r="J57" s="218"/>
       <c r="K57" s="114"/>
     </row>
     <row r="58" spans="1:11" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4312,51 +4412,51 @@
     </row>
     <row r="67" spans="1:11" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="25"/>
-      <c r="B67" s="207"/>
-      <c r="C67" s="207"/>
-      <c r="D67" s="207"/>
-      <c r="E67" s="207"/>
-      <c r="F67" s="207"/>
-      <c r="G67" s="207"/>
-      <c r="H67" s="207"/>
-      <c r="I67" s="207"/>
-      <c r="J67" s="207"/>
+      <c r="B67" s="214"/>
+      <c r="C67" s="214"/>
+      <c r="D67" s="214"/>
+      <c r="E67" s="214"/>
+      <c r="F67" s="214"/>
+      <c r="G67" s="214"/>
+      <c r="H67" s="214"/>
+      <c r="I67" s="214"/>
+      <c r="J67" s="214"/>
     </row>
     <row r="68" spans="1:11" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="26"/>
-      <c r="B68" s="208"/>
-      <c r="C68" s="208"/>
-      <c r="D68" s="208"/>
-      <c r="E68" s="208"/>
-      <c r="F68" s="208"/>
-      <c r="G68" s="208"/>
-      <c r="H68" s="208"/>
-      <c r="I68" s="208"/>
-      <c r="J68" s="208"/>
+      <c r="B68" s="215"/>
+      <c r="C68" s="215"/>
+      <c r="D68" s="215"/>
+      <c r="E68" s="215"/>
+      <c r="F68" s="215"/>
+      <c r="G68" s="215"/>
+      <c r="H68" s="215"/>
+      <c r="I68" s="215"/>
+      <c r="J68" s="215"/>
     </row>
     <row r="69" spans="1:11" ht="105.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2"/>
-      <c r="B69" s="203"/>
-      <c r="C69" s="203"/>
-      <c r="D69" s="203"/>
-      <c r="E69" s="203"/>
-      <c r="F69" s="203"/>
-      <c r="G69" s="203"/>
-      <c r="H69" s="203"/>
-      <c r="I69" s="203"/>
-      <c r="J69" s="203"/>
+      <c r="B69" s="210"/>
+      <c r="C69" s="210"/>
+      <c r="D69" s="210"/>
+      <c r="E69" s="210"/>
+      <c r="F69" s="210"/>
+      <c r="G69" s="210"/>
+      <c r="H69" s="210"/>
+      <c r="I69" s="210"/>
+      <c r="J69" s="210"/>
     </row>
     <row r="70" spans="1:11" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2"/>
-      <c r="B70" s="203"/>
-      <c r="C70" s="203"/>
-      <c r="D70" s="203"/>
-      <c r="E70" s="203"/>
-      <c r="F70" s="203"/>
-      <c r="G70" s="203"/>
-      <c r="H70" s="203"/>
-      <c r="I70" s="203"/>
-      <c r="J70" s="203"/>
+      <c r="B70" s="210"/>
+      <c r="C70" s="210"/>
+      <c r="D70" s="210"/>
+      <c r="E70" s="210"/>
+      <c r="F70" s="210"/>
+      <c r="G70" s="210"/>
+      <c r="H70" s="210"/>
+      <c r="I70" s="210"/>
+      <c r="J70" s="210"/>
     </row>
     <row r="71" spans="1:11" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="122">
@@ -4614,12 +4714,12 @@
       <c r="A83" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B83" s="196" t="s">
+      <c r="B83" s="203" t="s">
         <v>186</v>
       </c>
-      <c r="C83" s="197"/>
-      <c r="D83" s="197"/>
-      <c r="E83" s="198"/>
+      <c r="C83" s="204"/>
+      <c r="D83" s="204"/>
+      <c r="E83" s="205"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -4630,12 +4730,12 @@
       <c r="A84" s="137" t="s">
         <v>185</v>
       </c>
-      <c r="B84" s="196" t="s">
+      <c r="B84" s="203" t="s">
         <v>187</v>
       </c>
-      <c r="C84" s="197"/>
-      <c r="D84" s="197"/>
-      <c r="E84" s="198"/>
+      <c r="C84" s="204"/>
+      <c r="D84" s="204"/>
+      <c r="E84" s="205"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -5533,27 +5633,27 @@
     </row>
     <row r="130" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="8"/>
-      <c r="B130" s="195"/>
-      <c r="C130" s="195"/>
-      <c r="D130" s="195"/>
-      <c r="E130" s="195"/>
-      <c r="F130" s="195"/>
-      <c r="G130" s="195"/>
-      <c r="H130" s="195"/>
-      <c r="I130" s="195"/>
-      <c r="J130" s="195"/>
+      <c r="B130" s="202"/>
+      <c r="C130" s="202"/>
+      <c r="D130" s="202"/>
+      <c r="E130" s="202"/>
+      <c r="F130" s="202"/>
+      <c r="G130" s="202"/>
+      <c r="H130" s="202"/>
+      <c r="I130" s="202"/>
+      <c r="J130" s="202"/>
     </row>
     <row r="131" spans="1:11" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="8"/>
-      <c r="B131" s="195"/>
-      <c r="C131" s="195"/>
-      <c r="D131" s="195"/>
-      <c r="E131" s="195"/>
-      <c r="F131" s="195"/>
-      <c r="G131" s="195"/>
-      <c r="H131" s="195"/>
-      <c r="I131" s="195"/>
-      <c r="J131" s="195"/>
+      <c r="B131" s="202"/>
+      <c r="C131" s="202"/>
+      <c r="D131" s="202"/>
+      <c r="E131" s="202"/>
+      <c r="F131" s="202"/>
+      <c r="G131" s="202"/>
+      <c r="H131" s="202"/>
+      <c r="I131" s="202"/>
+      <c r="J131" s="202"/>
     </row>
     <row r="132" spans="1:11" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="188">
@@ -5600,7 +5700,7 @@
         <v>20171018</v>
       </c>
       <c r="B134" s="190" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C134" s="190" t="s">
         <v>277</v>
@@ -5612,11 +5712,20 @@
       <c r="H134" s="8"/>
       <c r="I134" s="8"/>
       <c r="J134" s="8"/>
-    </row>
-    <row r="135" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="190"/>
+      <c r="K134" s="193" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="192">
+        <v>20171019</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C135" s="193" t="s">
+        <v>275</v>
+      </c>
       <c r="D135" s="3"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
@@ -5624,11 +5733,20 @@
       <c r="H135" s="8"/>
       <c r="I135" s="8"/>
       <c r="J135" s="8"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A136" s="8"/>
-      <c r="B136" s="8"/>
-      <c r="C136" s="8"/>
+      <c r="K135" s="193" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="192">
+        <v>20171020</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C136" s="193" t="s">
+        <v>278</v>
+      </c>
       <c r="D136" s="3"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
@@ -5636,11 +5754,20 @@
       <c r="H136" s="8"/>
       <c r="I136" s="8"/>
       <c r="J136" s="8"/>
+      <c r="K136" s="194" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="137" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="8"/>
-      <c r="B137" s="8"/>
-      <c r="C137" s="8"/>
+      <c r="A137" s="195">
+        <v>20171023</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C137" s="194" t="s">
+        <v>281</v>
+      </c>
       <c r="D137" s="3"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
@@ -5650,9 +5777,12 @@
       <c r="J137" s="8"/>
     </row>
     <row r="138" spans="1:11" ht="180" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="8"/>
-      <c r="B138" s="9"/>
-      <c r="C138" s="8"/>
+      <c r="A138" s="195">
+        <v>20171024</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>283</v>
+      </c>
       <c r="D138" s="3"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
@@ -5660,11 +5790,20 @@
       <c r="H138" s="8"/>
       <c r="I138" s="8"/>
       <c r="J138" s="8"/>
-    </row>
-    <row r="139" spans="1:11" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="8"/>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
+      <c r="K138" s="194" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" ht="152.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="195">
+        <v>20171025</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>286</v>
+      </c>
       <c r="D139" s="3"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
@@ -5674,9 +5813,15 @@
       <c r="J139" s="8"/>
     </row>
     <row r="140" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="8"/>
-      <c r="B140" s="8"/>
-      <c r="C140" s="8"/>
+      <c r="A140" s="196">
+        <v>20171026</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>288</v>
+      </c>
       <c r="D140" s="3"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
@@ -5685,10 +5830,16 @@
       <c r="I140" s="8"/>
       <c r="J140" s="8"/>
     </row>
-    <row r="141" spans="1:11" ht="66.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="8"/>
+    <row r="141" spans="1:11" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="198">
+        <v>20171027</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C141" s="197" t="s">
+        <v>289</v>
+      </c>
       <c r="D141" s="3"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
@@ -5951,27 +6102,27 @@
     </row>
     <row r="163" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="16"/>
-      <c r="B163" s="192"/>
-      <c r="C163" s="193"/>
-      <c r="D163" s="193"/>
-      <c r="E163" s="193"/>
-      <c r="F163" s="193"/>
-      <c r="G163" s="193"/>
-      <c r="H163" s="193"/>
-      <c r="I163" s="193"/>
-      <c r="J163" s="194"/>
+      <c r="B163" s="199"/>
+      <c r="C163" s="200"/>
+      <c r="D163" s="200"/>
+      <c r="E163" s="200"/>
+      <c r="F163" s="200"/>
+      <c r="G163" s="200"/>
+      <c r="H163" s="200"/>
+      <c r="I163" s="200"/>
+      <c r="J163" s="201"/>
     </row>
     <row r="164" spans="1:10" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="16"/>
-      <c r="B164" s="192"/>
-      <c r="C164" s="193"/>
-      <c r="D164" s="193"/>
-      <c r="E164" s="193"/>
-      <c r="F164" s="193"/>
-      <c r="G164" s="193"/>
-      <c r="H164" s="193"/>
-      <c r="I164" s="193"/>
-      <c r="J164" s="194"/>
+      <c r="B164" s="199"/>
+      <c r="C164" s="200"/>
+      <c r="D164" s="200"/>
+      <c r="E164" s="200"/>
+      <c r="F164" s="200"/>
+      <c r="G164" s="200"/>
+      <c r="H164" s="200"/>
+      <c r="I164" s="200"/>
+      <c r="J164" s="201"/>
     </row>
     <row r="165" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="15"/>
